--- a/medicine/Sexualité et sexologie/Losange_de_Michaelis/Losange_de_Michaelis.xlsx
+++ b/medicine/Sexualité et sexologie/Losange_de_Michaelis/Losange_de_Michaelis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le losange de Michaelis est une zone en forme de losange, qui apparaît, plus ou moins visible, dans le bas du dos de certains êtres humains. Elle est normalement délimitée à gauche et à droite par les fossettes sacro-iliaques, et en bas par le début du sillon interfessier.
-Cette zone a été nommée ainsi en référence à Gustav Adolf Michaelis, un obstétricien allemand du XIXe siècle qui l'utilisait pour évaluer la capacité de passage de la tête du bébé dans le bassin d'une femme[1],[2].
+Cette zone a été nommée ainsi en référence à Gustav Adolf Michaelis, un obstétricien allemand du XIXe siècle qui l'utilisait pour évaluer la capacité de passage de la tête du bébé dans le bassin d'une femme,.
 Elle peut être considérée comme une zone érogène.[réf. nécessaire]
 </t>
         </is>
@@ -513,9 +525,11 @@
           <t>Dans l'art</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le losange de Michaelis est mis en évidence dans des représentations artistiques érotiques. Certaines femmes décorent cette partie du corps avec des tatouages[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le losange de Michaelis est mis en évidence dans des représentations artistiques érotiques. Certaines femmes décorent cette partie du corps avec des tatouages.
 </t>
         </is>
       </c>
